--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Vegfc</t>
+  </si>
+  <si>
+    <t>Nrp2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Vegfc</t>
-  </si>
-  <si>
-    <t>Nrp2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H2">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I2">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J2">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N2">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O2">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P2">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q2">
-        <v>405.3813582091935</v>
+        <v>162.6011594024738</v>
       </c>
       <c r="R2">
-        <v>1621.525432836774</v>
+        <v>650.4046376098952</v>
       </c>
       <c r="S2">
-        <v>0.1900983449112552</v>
+        <v>0.1787087367187604</v>
       </c>
       <c r="T2">
-        <v>0.1228041641220984</v>
+        <v>0.1166170405928557</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H3">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I3">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J3">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O3">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P3">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q3">
-        <v>99.495291948269</v>
+        <v>64.411320836485</v>
       </c>
       <c r="R3">
-        <v>596.9717516896139</v>
+        <v>386.46792501891</v>
       </c>
       <c r="S3">
-        <v>0.04665703033159143</v>
+        <v>0.07079202767910817</v>
       </c>
       <c r="T3">
-        <v>0.04521089554697567</v>
+        <v>0.06929339536290116</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H4">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I4">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J4">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N4">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O4">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P4">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q4">
-        <v>155.1893195189465</v>
+        <v>52.81073180687502</v>
       </c>
       <c r="R4">
-        <v>931.1359171136791</v>
+        <v>316.8643908412501</v>
       </c>
       <c r="S4">
-        <v>0.07277402423924938</v>
+        <v>0.05804226243577639</v>
       </c>
       <c r="T4">
-        <v>0.07051839315598281</v>
+        <v>0.05681353636246329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H5">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I5">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J5">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N5">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O5">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P5">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q5">
-        <v>34.46629743794775</v>
+        <v>43.03253184378751</v>
       </c>
       <c r="R5">
-        <v>137.865189751791</v>
+        <v>172.13012737515</v>
       </c>
       <c r="S5">
-        <v>0.0161625244118695</v>
+        <v>0.04729541555468206</v>
       </c>
       <c r="T5">
-        <v>0.01044104461524497</v>
+        <v>0.03086279662015727</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H6">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I6">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J6">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N6">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O6">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P6">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q6">
-        <v>210.997722843533</v>
+        <v>33.59257154919751</v>
       </c>
       <c r="R6">
-        <v>1265.986337061198</v>
+        <v>201.555429295185</v>
       </c>
       <c r="S6">
-        <v>0.09894465317741816</v>
+        <v>0.03692031500115076</v>
       </c>
       <c r="T6">
-        <v>0.09587786337758122</v>
+        <v>0.03613873013913677</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.314218500000001</v>
+        <v>4.087702500000001</v>
       </c>
       <c r="H7">
-        <v>12.628437</v>
+        <v>8.175405000000001</v>
       </c>
       <c r="I7">
-        <v>0.4670554707680782</v>
+        <v>0.5135259811487827</v>
       </c>
       <c r="J7">
-        <v>0.3859564807867226</v>
+        <v>0.4289149707570554</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N7">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O7">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P7">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q7">
-        <v>90.457540535269</v>
+        <v>110.791963079245</v>
       </c>
       <c r="R7">
-        <v>542.745243211614</v>
+        <v>664.75177847547</v>
       </c>
       <c r="S7">
-        <v>0.04241889369669451</v>
+        <v>0.1217672237593048</v>
       </c>
       <c r="T7">
-        <v>0.04110411996883955</v>
+        <v>0.1191894716795412</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I8">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J8">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N8">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O8">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P8">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q8">
-        <v>198.771940991921</v>
+        <v>123.1559131791945</v>
       </c>
       <c r="R8">
-        <v>1192.631645951526</v>
+        <v>738.935479075167</v>
       </c>
       <c r="S8">
-        <v>0.09321153090089211</v>
+        <v>0.1353559700593644</v>
       </c>
       <c r="T8">
-        <v>0.09032243924192733</v>
+        <v>0.1324905509214638</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I9">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J9">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O9">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P9">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q9">
         <v>48.78584547518732</v>
@@ -1013,10 +1013,10 @@
         <v>439.0726092766859</v>
       </c>
       <c r="S9">
-        <v>0.02287749126131137</v>
+        <v>0.05361866327808446</v>
       </c>
       <c r="T9">
-        <v>0.03325260503426207</v>
+        <v>0.07872537392628721</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I10">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J10">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N10">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O10">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P10">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q10">
-        <v>76.09447656465233</v>
+        <v>39.99943127858334</v>
       </c>
       <c r="R10">
-        <v>684.8502890818709</v>
+        <v>359.99488150725</v>
       </c>
       <c r="S10">
-        <v>0.03568352061311103</v>
+        <v>0.04396185033079012</v>
       </c>
       <c r="T10">
-        <v>0.05186626468901182</v>
+        <v>0.06454679945737295</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I11">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J11">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N11">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O11">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P11">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q11">
-        <v>16.8999701190265</v>
+        <v>32.59331467936499</v>
       </c>
       <c r="R11">
-        <v>101.399820714159</v>
+        <v>195.55988807619</v>
       </c>
       <c r="S11">
-        <v>0.007925022410672231</v>
+        <v>0.03582206986242272</v>
       </c>
       <c r="T11">
-        <v>0.007679386319058987</v>
+        <v>0.03506373430841661</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I12">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J12">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N12">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O12">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P12">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q12">
-        <v>103.4591898842113</v>
+        <v>25.443384539089</v>
       </c>
       <c r="R12">
-        <v>931.1327089579019</v>
+        <v>228.990460851801</v>
       </c>
       <c r="S12">
-        <v>0.04851584900137082</v>
+        <v>0.02796385416647318</v>
       </c>
       <c r="T12">
-        <v>0.07051815019038964</v>
+        <v>0.04105780974542812</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>9.288212999999999</v>
       </c>
       <c r="I13">
-        <v>0.2290128063253425</v>
+        <v>0.3889502472308815</v>
       </c>
       <c r="J13">
-        <v>0.2838709178560645</v>
+        <v>0.4872974008358364</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N13">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O13">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P13">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q13">
-        <v>44.35433585052066</v>
+        <v>83.91505593245132</v>
       </c>
       <c r="R13">
-        <v>399.1890226546859</v>
+        <v>755.2355033920619</v>
       </c>
       <c r="S13">
-        <v>0.02079939213798487</v>
+        <v>0.09222783953374657</v>
       </c>
       <c r="T13">
-        <v>0.03023207238141466</v>
+        <v>0.1354131324768677</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02195966666666667</v>
+        <v>0.73184</v>
       </c>
       <c r="H14">
-        <v>0.06587899999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I14">
-        <v>0.001624331253806005</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J14">
-        <v>0.002013426285275722</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N14">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O14">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P14">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q14">
-        <v>1.409840267509666</v>
+        <v>29.11122629328</v>
       </c>
       <c r="R14">
-        <v>8.459041605057998</v>
+        <v>116.44490517312</v>
       </c>
       <c r="S14">
-        <v>0.0006611263592060035</v>
+        <v>0.03199503923787448</v>
       </c>
       <c r="T14">
-        <v>0.0006406347458675776</v>
+        <v>0.02087848002330783</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02195966666666667</v>
+        <v>0.73184</v>
       </c>
       <c r="H15">
-        <v>0.06587899999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I15">
-        <v>0.001624331253806005</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J15">
-        <v>0.002013426285275722</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O15">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P15">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q15">
-        <v>0.346025948593111</v>
+        <v>11.53185219349333</v>
       </c>
       <c r="R15">
-        <v>3.114233537337999</v>
+        <v>69.19111316096</v>
       </c>
       <c r="S15">
-        <v>0.0001622643932480803</v>
+        <v>0.01267421920667625</v>
       </c>
       <c r="T15">
-        <v>0.0002358525118935312</v>
+        <v>0.01240591223612423</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02195966666666667</v>
+        <v>0.73184</v>
       </c>
       <c r="H16">
-        <v>0.06587899999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I16">
-        <v>0.001624331253806005</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J16">
-        <v>0.002013426285275722</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N16">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O16">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P16">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q16">
-        <v>0.5397193218547777</v>
+        <v>9.454945893333335</v>
       </c>
       <c r="R16">
-        <v>4.857473896693</v>
+        <v>56.72967536000001</v>
       </c>
       <c r="S16">
-        <v>0.0002530943954957904</v>
+        <v>0.01039157065393056</v>
       </c>
       <c r="T16">
-        <v>0.0003678746010074714</v>
+        <v>0.01017158622759487</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.02195966666666667</v>
+        <v>0.73184</v>
       </c>
       <c r="H17">
-        <v>0.06587899999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I17">
-        <v>0.001624331253806005</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J17">
-        <v>0.002013426285275722</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N17">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O17">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P17">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q17">
-        <v>0.1198673126328333</v>
+        <v>7.7043102096</v>
       </c>
       <c r="R17">
-        <v>0.7192038757969998</v>
+        <v>30.8172408384</v>
       </c>
       <c r="S17">
-        <v>5.621022594902549E-05</v>
+        <v>0.008467513699820012</v>
       </c>
       <c r="T17">
-        <v>5.446798983973419E-05</v>
+        <v>0.005525507073593515</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.02195966666666667</v>
+        <v>0.73184</v>
       </c>
       <c r="H18">
-        <v>0.06587899999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I18">
-        <v>0.001624331253806005</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J18">
-        <v>0.002013426285275722</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N18">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O18">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P18">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q18">
-        <v>0.7338104725184443</v>
+        <v>6.014231114560001</v>
       </c>
       <c r="R18">
-        <v>6.604294252665999</v>
+        <v>36.08538668736001</v>
       </c>
       <c r="S18">
-        <v>0.0003441109303114935</v>
+        <v>0.006610012184214035</v>
       </c>
       <c r="T18">
-        <v>0.0005001678166072073</v>
+        <v>0.006470081485877666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.02195966666666667</v>
+        <v>0.73184</v>
       </c>
       <c r="H19">
-        <v>0.06587899999999999</v>
+        <v>1.46368</v>
       </c>
       <c r="I19">
-        <v>0.001624331253806005</v>
+        <v>0.09193889575964129</v>
       </c>
       <c r="J19">
-        <v>0.002013426285275722</v>
+        <v>0.0767906011258998</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N19">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O19">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P19">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q19">
-        <v>0.3145943457042222</v>
+        <v>19.83558986005333</v>
       </c>
       <c r="R19">
-        <v>2.831349111338</v>
+        <v>119.01353916032</v>
       </c>
       <c r="S19">
-        <v>0.0001475249495956117</v>
+        <v>0.02180054077712594</v>
       </c>
       <c r="T19">
-        <v>0.0002144286200602006</v>
+        <v>0.02133903407940169</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.5235485</v>
+        <v>0.044456</v>
       </c>
       <c r="H20">
-        <v>3.047097</v>
+        <v>0.133368</v>
       </c>
       <c r="I20">
-        <v>0.1126951279727649</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J20">
-        <v>0.09312687189521394</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>64.20135099999999</v>
+        <v>39.77812950000001</v>
       </c>
       <c r="N20">
-        <v>128.402702</v>
+        <v>79.55625900000001</v>
       </c>
       <c r="O20">
-        <v>0.4070144914449588</v>
+        <v>0.348003301252607</v>
       </c>
       <c r="P20">
-        <v>0.3181813759721767</v>
+        <v>0.2718884826683037</v>
       </c>
       <c r="Q20">
-        <v>97.81387201402349</v>
+        <v>1.768376525052</v>
       </c>
       <c r="R20">
-        <v>391.255488056094</v>
+        <v>10.610259150312</v>
       </c>
       <c r="S20">
-        <v>0.04586855020015945</v>
+        <v>0.001943555236607657</v>
       </c>
       <c r="T20">
-        <v>0.0296312362396038</v>
+        <v>0.001902411130676458</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.5235485</v>
+        <v>0.044456</v>
       </c>
       <c r="H21">
-        <v>3.047097</v>
+        <v>0.133368</v>
       </c>
       <c r="I21">
-        <v>0.1126951279727649</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J21">
-        <v>0.09312687189521394</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>47.27202199999999</v>
       </c>
       <c r="O21">
-        <v>0.09989612209201489</v>
+        <v>0.137854812176675</v>
       </c>
       <c r="P21">
-        <v>0.11713987922892</v>
+        <v>0.1615550868755992</v>
       </c>
       <c r="Q21">
-        <v>24.007072736689</v>
+        <v>0.7005083366773331</v>
       </c>
       <c r="R21">
-        <v>144.042436420134</v>
+        <v>6.304575030095998</v>
       </c>
       <c r="S21">
-        <v>0.01125780626314256</v>
+        <v>0.0007699020128060768</v>
       </c>
       <c r="T21">
-        <v>0.01090887052677247</v>
+        <v>0.001130405350286549</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.5235485</v>
+        <v>0.044456</v>
       </c>
       <c r="H22">
-        <v>3.047097</v>
+        <v>0.133368</v>
       </c>
       <c r="I22">
-        <v>0.1126951279727649</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J22">
-        <v>0.09312687189521394</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.57775566666666</v>
+        <v>12.91941666666667</v>
       </c>
       <c r="N22">
-        <v>73.733267</v>
+        <v>38.75825</v>
       </c>
       <c r="O22">
-        <v>0.1558145205313014</v>
+        <v>0.1130269247642213</v>
       </c>
       <c r="P22">
-        <v>0.1827107372630203</v>
+        <v>0.1324587394610747</v>
       </c>
       <c r="Q22">
-        <v>37.4454027793165</v>
+        <v>0.5743455873333334</v>
       </c>
       <c r="R22">
-        <v>224.672416675899</v>
+        <v>5.169110286</v>
       </c>
       <c r="S22">
-        <v>0.01755953733129001</v>
+        <v>0.0006312413437242252</v>
       </c>
       <c r="T22">
-        <v>0.01701527942297338</v>
+        <v>0.0009268174136436057</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.5235485</v>
+        <v>0.044456</v>
       </c>
       <c r="H23">
-        <v>3.047097</v>
+        <v>0.133368</v>
       </c>
       <c r="I23">
-        <v>0.1126951279727649</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J23">
-        <v>0.09312687189521394</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.4585215</v>
+        <v>10.527315</v>
       </c>
       <c r="N23">
-        <v>10.917043</v>
+        <v>21.05463</v>
       </c>
       <c r="O23">
-        <v>0.03460514954527786</v>
+        <v>0.09209936262402908</v>
       </c>
       <c r="P23">
-        <v>0.02705238837799083</v>
+        <v>0.07195551268747499</v>
       </c>
       <c r="Q23">
-        <v>8.31632224354275</v>
+        <v>0.4680023156399999</v>
       </c>
       <c r="R23">
-        <v>33.265288974171</v>
+        <v>2.80801389384</v>
       </c>
       <c r="S23">
-        <v>0.003899831756521754</v>
+        <v>0.0005143635071042829</v>
       </c>
       <c r="T23">
-        <v>0.002519304306936726</v>
+        <v>0.0005034746853075944</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.5235485</v>
+        <v>0.044456</v>
       </c>
       <c r="H24">
-        <v>3.047097</v>
+        <v>0.133368</v>
       </c>
       <c r="I24">
-        <v>0.1126951279727649</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J24">
-        <v>0.09312687189521394</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>33.41628466666666</v>
+        <v>8.217959</v>
       </c>
       <c r="N24">
-        <v>100.248854</v>
+        <v>24.653877</v>
       </c>
       <c r="O24">
-        <v>0.2118477555025798</v>
+        <v>0.07189570996691971</v>
       </c>
       <c r="P24">
-        <v>0.2484162545532246</v>
+        <v>0.0842561640489027</v>
       </c>
       <c r="Q24">
-        <v>50.911330379473</v>
+        <v>0.365337585304</v>
       </c>
       <c r="R24">
-        <v>305.467982276838</v>
+        <v>3.288038267736</v>
       </c>
       <c r="S24">
-        <v>0.02387420991710624</v>
+        <v>0.0004015286150817379</v>
       </c>
       <c r="T24">
-        <v>0.02313422871446701</v>
+        <v>0.0005895426784601364</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.5235485</v>
+        <v>0.044456</v>
       </c>
       <c r="H25">
-        <v>3.047097</v>
+        <v>0.133368</v>
       </c>
       <c r="I25">
-        <v>0.1126951279727649</v>
+        <v>0.005584875860694431</v>
       </c>
       <c r="J25">
-        <v>0.09312687189521394</v>
+        <v>0.006997027281208326</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.32600733333333</v>
+        <v>27.10372466666666</v>
       </c>
       <c r="N25">
-        <v>42.978022</v>
+        <v>81.31117399999999</v>
       </c>
       <c r="O25">
-        <v>0.09082196088386704</v>
+        <v>0.2371198892155478</v>
       </c>
       <c r="P25">
-        <v>0.1064993646046676</v>
+        <v>0.2778860142586446</v>
       </c>
       <c r="Q25">
-        <v>21.826366983689</v>
+        <v>1.204923183781333</v>
       </c>
       <c r="R25">
-        <v>130.958201902134</v>
+        <v>10.844308654032</v>
       </c>
       <c r="S25">
-        <v>0.01023519250454484</v>
+        <v>0.001324285145370451</v>
       </c>
       <c r="T25">
-        <v>0.009917952684460562</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.563407</v>
-      </c>
-      <c r="H26">
-        <v>7.690220999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.1896122636800084</v>
-      </c>
-      <c r="J26">
-        <v>0.2350323031767232</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>64.20135099999999</v>
-      </c>
-      <c r="N26">
-        <v>128.402702</v>
-      </c>
-      <c r="O26">
-        <v>0.4070144914449588</v>
-      </c>
-      <c r="P26">
-        <v>0.3181813759721767</v>
-      </c>
-      <c r="Q26">
-        <v>164.574192562857</v>
-      </c>
-      <c r="R26">
-        <v>987.4451553771418</v>
-      </c>
-      <c r="S26">
-        <v>0.07717493907344604</v>
-      </c>
-      <c r="T26">
-        <v>0.07478290162267959</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>2.563407</v>
-      </c>
-      <c r="H27">
-        <v>7.690220999999999</v>
-      </c>
-      <c r="I27">
-        <v>0.1896122636800084</v>
-      </c>
-      <c r="J27">
-        <v>0.2350323031767232</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>15.75734066666666</v>
-      </c>
-      <c r="N27">
-        <v>47.27202199999999</v>
-      </c>
-      <c r="O27">
-        <v>0.09989612209201489</v>
-      </c>
-      <c r="P27">
-        <v>0.11713987922892</v>
-      </c>
-      <c r="Q27">
-        <v>40.39247736631799</v>
-      </c>
-      <c r="R27">
-        <v>363.5322962968619</v>
-      </c>
-      <c r="S27">
-        <v>0.01894152984272144</v>
-      </c>
-      <c r="T27">
-        <v>0.02753165560901627</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>2.563407</v>
-      </c>
-      <c r="H28">
-        <v>7.690220999999999</v>
-      </c>
-      <c r="I28">
-        <v>0.1896122636800084</v>
-      </c>
-      <c r="J28">
-        <v>0.2350323031767232</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>24.57775566666666</v>
-      </c>
-      <c r="N28">
-        <v>73.733267</v>
-      </c>
-      <c r="O28">
-        <v>0.1558145205313014</v>
-      </c>
-      <c r="P28">
-        <v>0.1827107372630203</v>
-      </c>
-      <c r="Q28">
-        <v>63.00279092022299</v>
-      </c>
-      <c r="R28">
-        <v>567.0251182820069</v>
-      </c>
-      <c r="S28">
-        <v>0.0295443439521552</v>
-      </c>
-      <c r="T28">
-        <v>0.04294292539404481</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>2.563407</v>
-      </c>
-      <c r="H29">
-        <v>7.690220999999999</v>
-      </c>
-      <c r="I29">
-        <v>0.1896122636800084</v>
-      </c>
-      <c r="J29">
-        <v>0.2350323031767232</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>5.4585215</v>
-      </c>
-      <c r="N29">
-        <v>10.917043</v>
-      </c>
-      <c r="O29">
-        <v>0.03460514954527786</v>
-      </c>
-      <c r="P29">
-        <v>0.02705238837799083</v>
-      </c>
-      <c r="Q29">
-        <v>13.9924122227505</v>
-      </c>
-      <c r="R29">
-        <v>83.95447333650299</v>
-      </c>
-      <c r="S29">
-        <v>0.006561560740265347</v>
-      </c>
-      <c r="T29">
-        <v>0.006358185146910405</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>2.563407</v>
-      </c>
-      <c r="H30">
-        <v>7.690220999999999</v>
-      </c>
-      <c r="I30">
-        <v>0.1896122636800084</v>
-      </c>
-      <c r="J30">
-        <v>0.2350323031767232</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>33.41628466666666</v>
-      </c>
-      <c r="N30">
-        <v>100.248854</v>
-      </c>
-      <c r="O30">
-        <v>0.2118477555025798</v>
-      </c>
-      <c r="P30">
-        <v>0.2484162545532246</v>
-      </c>
-      <c r="Q30">
-        <v>85.65953802852599</v>
-      </c>
-      <c r="R30">
-        <v>770.9358422567338</v>
-      </c>
-      <c r="S30">
-        <v>0.04016893247637311</v>
-      </c>
-      <c r="T30">
-        <v>0.05838584445417955</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2.563407</v>
-      </c>
-      <c r="H31">
-        <v>7.690220999999999</v>
-      </c>
-      <c r="I31">
-        <v>0.1896122636800084</v>
-      </c>
-      <c r="J31">
-        <v>0.2350323031767232</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>14.32600733333333</v>
-      </c>
-      <c r="N31">
-        <v>42.978022</v>
-      </c>
-      <c r="O31">
-        <v>0.09082196088386704</v>
-      </c>
-      <c r="P31">
-        <v>0.1064993646046676</v>
-      </c>
-      <c r="Q31">
-        <v>36.72338748031799</v>
-      </c>
-      <c r="R31">
-        <v>330.5104873228619</v>
-      </c>
-      <c r="S31">
-        <v>0.0172209575950472</v>
-      </c>
-      <c r="T31">
-        <v>0.02503079094989262</v>
+        <v>0.001944376022833982</v>
       </c>
     </row>
   </sheetData>
